--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28182</v>
+        <v>25070</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>4121.65</v>
+        <v>7.378866646932948</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6708</v>
+        <v>4325</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>680.28</v>
+        <v>1.803403172940428</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3507</v>
+        <v>2038</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>407.66</v>
+        <v>0.6783724835898117</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>12813</v>
+        <v>9207</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>1525.4</v>
+        <v>3.399762287672211</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11714</v>
+        <v>10848</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>1480.76</v>
+        <v>3.706909747073371</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4264</v>
+        <v>4323</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>944.01</v>
+        <v>1.672887686610408</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2794</v>
+        <v>2231</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>422.45</v>
+        <v>0.8940981650294311</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9093</v>
+        <v>8312</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>1428.14</v>
+        <v>2.782195279056868</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>857</v>
+        <v>705</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>133.08</v>
+        <v>0.3277323766265209</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7019</v>
+        <v>4509</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>838.59</v>
+        <v>1.635975589324161</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3077</v>
+        <v>2183</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>372.74</v>
+        <v>0.9301608307291116</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>13944</v>
+        <v>9280</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>1902.63</v>
+        <v>3.373306120172939</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>14786</v>
+        <v>9266</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>2075.28</v>
+        <v>2.791131278276831</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163440</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46980</v>
+        <v>62640</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3780</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46980</v>
+        <v>15660</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25070</v>
+        <v>26975</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>7.378866646932948</v>
+        <v>1662.329717365148</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4325</v>
+        <v>4132</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>1.803403172940428</v>
+        <v>306.5647654294494</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2038</v>
+        <v>2482</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6783724835898117</v>
+        <v>120.6376793348797</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9207</v>
+        <v>11219</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>3.399762287672211</v>
+        <v>629.4759249113082</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10848</v>
+        <v>8519</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>3.706909747073371</v>
+        <v>525.6081152580033</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4323</v>
+        <v>3940</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>1.672887686610408</v>
+        <v>342.2149092577047</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2231</v>
+        <v>2059</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8940981650294311</v>
+        <v>161.3221882914016</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>8312</v>
+        <v>11645</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>2.782195279056868</v>
+        <v>969.4356032794601</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>705</v>
+        <v>923</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3277323766265209</v>
+        <v>55.08526460455573</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4509</v>
+        <v>3376</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>1.635975589324161</v>
+        <v>259.5722440372228</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2183</v>
+        <v>2415</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9301608307291116</v>
+        <v>149.3650193782365</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9280</v>
+        <v>10396</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>3.373306120172939</v>
+        <v>449.4495697516031</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9266</v>
+        <v>9176</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>2.791131278276831</v>
+        <v>593.9895630247473</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40860</v>
+        <v>122580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62640</v>
+        <v>15660</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6300</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15660</v>
+        <v>31320</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26975</v>
+        <v>27329</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1662.329717365148</v>
+        <v>84.30959517178536</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4132</v>
+        <v>4547</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>306.5647654294494</v>
+        <v>19.49543493756784</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2482</v>
+        <v>1848</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>120.6376793348797</v>
+        <v>7.873131441014265</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11219</v>
+        <v>10063</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>629.4759249113082</v>
+        <v>30.98595332435024</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>8519</v>
+        <v>7596</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>525.6081152580033</v>
+        <v>41.31680987630059</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3940</v>
+        <v>4526</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>342.2149092577047</v>
+        <v>21.03038393162423</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2059</v>
+        <v>2622</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>161.3221882914016</v>
+        <v>10.43967642676054</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11645</v>
+        <v>11165</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>969.4356032794601</v>
+        <v>67.33274052631205</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>55.08526460455573</v>
+        <v>2.972051872847696</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3376</v>
+        <v>3436</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>259.5722440372228</v>
+        <v>13.61628542923371</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2415</v>
+        <v>2138</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>149.3650193782365</v>
+        <v>6.707157812617266</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10396</v>
+        <v>7805</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>449.4495697516031</v>
+        <v>37.17044839643022</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9176</v>
+        <v>9954</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>593.9895630247473</v>
+        <v>40.86567122945894</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122580</v>
+        <v>81720</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15660</v>
+        <v>46980</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1260</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31320</v>
+        <v>46980</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27329</v>
+        <v>113274</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>84.30959517178536</v>
+        <v>852.0336380673486</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4547</v>
+        <v>19906</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>19.49543493756784</v>
+        <v>157.5965507306259</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1848</v>
+        <v>9933</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>7.873131441014265</v>
+        <v>65.36762500034385</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10063</v>
+        <v>39866</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>30.98595332435024</v>
+        <v>275.4485546735667</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>7596</v>
+        <v>43360</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31680987630059</v>
+        <v>276.9527210241383</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4526</v>
+        <v>19906</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>21.03038393162423</v>
+        <v>120.0161627205684</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2622</v>
+        <v>9933</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>10.43967642676054</v>
+        <v>77.18312304783457</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11165</v>
+        <v>39866</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>67.33274052631205</v>
+        <v>679.2699700744083</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>883</v>
+        <v>3461</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>2.972051872847696</v>
+        <v>25.27466360302312</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3436</v>
+        <v>19906</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>13.61628542923371</v>
+        <v>138.4340733245321</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2138</v>
+        <v>9933</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>6.707157812617266</v>
+        <v>58.4435603848269</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7805</v>
+        <v>39866</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>37.17044839643022</v>
+        <v>237.6708880406403</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9954</v>
+        <v>43360</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>40.86567122945894</v>
+        <v>334.3707555414118</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81720</v>
+        <v>163440</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28800</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46980</v>
+        <v>78300</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6300</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46980</v>
+        <v>31320</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>113274</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>852.0336380673486</v>
+        <v>1008.888888888889</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>19906</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>157.5965507306259</v>
+        <v>205.6666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9933</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>65.36762500034385</v>
+        <v>102.7777777777778</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>39866</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>275.4485546735667</v>
+        <v>410.4444444444443</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>43360</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>276.9527210241383</v>
+        <v>446.3583333333332</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>19906</v>
+        <v>60001</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>120.0161627205684</v>
+        <v>205.6666666666666</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9933</v>
+        <v>30001</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>77.18312304783457</v>
+        <v>102.7777777777778</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>39866</v>
+        <v>120001</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>679.2699700744083</v>
+        <v>820.8888888888887</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3461</v>
+        <v>10501</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>25.27466360302312</v>
+        <v>35.91388888888888</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>19906</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>138.4340733245321</v>
+        <v>179</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9933</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>58.4435603848269</v>
+        <v>89.44444444444443</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>39866</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>237.6708880406403</v>
+        <v>357.111111111111</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>43360</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>334.3707555414118</v>
+        <v>388.3583333333333</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163440</v>
+        <v>227000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21600</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>78300</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28800</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5040</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7200</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14400</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43200</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31320</v>
+        <v>435000</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1008.888888888889</v>
+        <v>544.8</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>205.6666666666666</v>
+        <v>111.06</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>102.7777777777778</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>410.4444444444443</v>
+        <v>221.64</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>446.3583333333332</v>
+        <v>241.0335</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>60001</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>205.6666666666666</v>
+        <v>111.06</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>30001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>102.7777777777778</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>120001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>820.8888888888887</v>
+        <v>443.28</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>10501</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>35.91388888888888</v>
+        <v>19.3935</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>179</v>
+        <v>96.66</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>89.44444444444443</v>
+        <v>48.3</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>357.111111111111</v>
+        <v>192.84</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>388.3583333333333</v>
+        <v>209.7135</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>227000</v>
+        <v>454000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>160000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>261000</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435000</v>
+        <v>174000</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Lumpy.xlsx
+++ b/Instances/02_Lumpy.xlsx
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>339541</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59598</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>29716</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>119431</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10333</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>400000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87000</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>160000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174000</v>
+        <v>348000</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
